--- a/configuration/InstructorDiscussionReplyData.xlsx
+++ b/configuration/InstructorDiscussionReplyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ryu\github\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C18C11A-BE7B-42AD-A0DF-639BBD03854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E5B198-4406-46BE-BA5A-8F8ABE795AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{FA47B970-8994-49F7-9CFE-8752D63DE9EB}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{FA47B970-8994-49F7-9CFE-8752D63DE9EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
